--- a/type_hint/cau_3.xlsx
+++ b/type_hint/cau_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\type_hint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516BC0AD-0098-4961-9F7B-D6E8874A1CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1E36BD-E720-4A47-B787-FB71EBF0BD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F61BB233-3359-48A0-917F-765ED0515483}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>A</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>STT : 44</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAD9799-2002-4F2D-821D-5806D88A3442}">
-  <dimension ref="B1:H13"/>
+  <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,6 +595,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:H1"/>
